--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Techglobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cam HL-02" sheetId="36" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="97">
   <si>
     <t>STT</t>
   </si>
@@ -262,6 +262,72 @@
   </si>
   <si>
     <t>Không rõ</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>123.031.030.077,09207</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16060</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK, NCFW</t>
+  </si>
+  <si>
+    <t>203.162.121.044,1202</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi GPS</t>
+  </si>
+  <si>
+    <t>203.162.121.024,09207</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn</t>
+  </si>
+  <si>
+    <t>NG, NCFW</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG.007.---16.051017 </t>
+  </si>
+  <si>
+    <t>vnetgps.com,16969</t>
+  </si>
+  <si>
+    <t>Thiết bị khồng nhận sim</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị không restore đc</t>
+  </si>
+  <si>
+    <t>203.162.121.026,09007</t>
+  </si>
+  <si>
+    <t>Restore thiết bị</t>
+  </si>
+  <si>
+    <t>203.162.121.024,09007</t>
   </si>
 </sst>
 </file>
@@ -464,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -664,7 +730,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -686,21 +770,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1009,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G6"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1042,43 +1111,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1123,58 +1192,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1199,23 +1268,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1257,7 +1326,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1288,7 +1357,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1317,7 +1386,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1346,7 +1415,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1375,7 +1444,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1404,7 +1473,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1433,7 +1502,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1464,7 +1533,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1493,7 +1562,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1522,7 +1591,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1551,7 +1620,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2782,13 +2851,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2800,6 +2862,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2810,8 +2879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B9"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2843,43 +2912,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -2924,58 +2993,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -3000,23 +3069,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3038,11 +3107,19 @@
         <v>71</v>
       </c>
       <c r="H6" s="64"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="52"/>
+      <c r="I6" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>89</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
         <v>61</v>
@@ -3051,14 +3128,14 @@
         <v>62</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3085,19 +3162,35 @@
         <v>71</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="52" t="s">
+        <v>89</v>
+      </c>
       <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3122,9 +3215,13 @@
         <v>71</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="60"/>
+      <c r="I8" s="60" t="s">
+        <v>96</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="52" t="s">
+        <v>89</v>
+      </c>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
       <c r="N8" s="1"/>
@@ -3134,7 +3231,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3171,7 +3268,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3200,7 +3297,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3229,7 +3326,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3258,7 +3355,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3289,7 +3386,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3318,7 +3415,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3347,7 +3444,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3376,7 +3473,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3527,7 +3624,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3900,7 +3997,7 @@
       </c>
       <c r="V33" s="10">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="14"/>
     </row>
@@ -3932,7 +4029,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -3964,7 +4061,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4028,7 +4125,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4607,13 +4704,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4625,6 +4715,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4636,7 +4733,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4668,43 +4765,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -4749,58 +4846,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -4825,23 +4922,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4863,11 +4960,21 @@
         <v>71</v>
       </c>
       <c r="H6" s="64"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
+      <c r="I6" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
         <v>61</v>
@@ -4876,14 +4983,14 @@
         <v>62</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4910,19 +5017,35 @@
         <v>71</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="M7" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>81</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4947,11 +5070,21 @@
         <v>71</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="I8" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>87</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="40"/>
       <c r="P8" s="1"/>
@@ -4959,7 +5092,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4984,11 +5117,21 @@
         <v>71</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="I9" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>87</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="40"/>
       <c r="P9" s="1"/>
@@ -4996,7 +5139,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5021,19 +5164,35 @@
         <v>71</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="60"/>
+      <c r="I10" s="50" t="s">
+        <v>77</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="K10" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5051,26 +5210,44 @@
         <v>72</v>
       </c>
       <c r="E11" s="39">
-        <v>868183034749153</v>
+        <v>868183034749163</v>
       </c>
       <c r="F11" s="55"/>
       <c r="G11" s="38" t="s">
         <v>71</v>
       </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="I11" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>81</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5099,7 +5276,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5130,7 +5307,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5159,7 +5336,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5188,7 +5365,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5217,7 +5394,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5400,7 +5577,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -5613,7 +5790,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -5677,7 +5854,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -5805,7 +5982,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -5869,7 +6046,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6448,13 +6625,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6466,6 +6636,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6509,43 +6686,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6590,58 +6767,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -6666,23 +6843,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6734,7 +6911,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6765,7 +6942,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6794,7 +6971,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6823,7 +7000,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6852,7 +7029,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6881,7 +7058,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6910,7 +7087,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6941,7 +7118,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6970,7 +7147,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -6999,7 +7176,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7028,7 +7205,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8259,13 +8436,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8277,6 +8447,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Techglobal.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="98">
   <si>
     <t>STT</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>203.162.121.024,09007</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng, nạp lại fw</t>
   </si>
 </sst>
 </file>
@@ -733,22 +736,7 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -770,6 +758,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1111,43 +1114,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1192,58 +1195,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1268,23 +1271,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1326,7 +1329,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1357,7 +1360,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1386,7 +1389,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1415,7 +1418,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1444,7 +1447,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1473,7 +1476,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1502,7 +1505,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1533,7 +1536,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1562,7 +1565,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1591,7 +1594,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1620,7 +1623,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2851,6 +2854,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2862,13 +2872,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2879,8 +2882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2912,43 +2915,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -2993,58 +2996,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -3069,23 +3072,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3135,7 +3138,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3190,7 +3193,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3218,20 +3221,32 @@
       <c r="I8" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="K8" s="52" t="s">
         <v>89</v>
       </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3256,19 +3271,35 @@
         <v>71</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="40"/>
+      <c r="I9" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="52" t="s">
+        <v>89</v>
+      </c>
       <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>97</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>81</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3297,7 +3328,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3326,7 +3357,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3355,7 +3386,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3386,7 +3417,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3415,7 +3446,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3444,7 +3475,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3473,7 +3504,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3592,7 +3623,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3656,7 +3687,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -3933,7 +3964,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4029,7 +4060,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -4061,7 +4092,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4125,7 +4156,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4704,6 +4735,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4715,13 +4753,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4733,7 +4764,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4765,43 +4796,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -4846,58 +4877,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -4922,23 +4953,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4990,7 +5021,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5045,7 +5076,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5092,7 +5123,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5139,7 +5170,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5192,7 +5223,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5247,7 +5278,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5276,7 +5307,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5307,7 +5338,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5336,7 +5367,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5365,7 +5396,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5394,7 +5425,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6625,6 +6656,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6636,13 +6674,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6686,43 +6717,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6767,58 +6798,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -6843,23 +6874,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6911,7 +6942,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6942,7 +6973,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6971,7 +7002,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7000,7 +7031,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7029,7 +7060,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7058,7 +7089,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7087,7 +7118,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7118,7 +7149,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7147,7 +7178,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7176,7 +7207,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7205,7 +7236,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8436,6 +8467,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8447,13 +8485,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Techglobal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang11\2.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang11\2.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cam HL-02" sheetId="36" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="94">
   <si>
     <t>STT</t>
   </si>
@@ -231,19 +231,7 @@
     <t>XỬ LÝ THIẾT BỊ BẢO HÀNH THÁNG 10 NĂM 2021</t>
   </si>
   <si>
-    <t>Còn BH</t>
-  </si>
-  <si>
     <t>LE.3.00.---01.200923</t>
-  </si>
-  <si>
-    <t>device.vnpttracking.vn,36035</t>
-  </si>
-  <si>
-    <t>Nâng cấp FW cho thiết bị</t>
-  </si>
-  <si>
-    <t>20190219080435</t>
   </si>
   <si>
     <t>Techglobal</t>
@@ -736,7 +724,22 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,21 +761,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1114,43 +1102,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="72"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1195,58 +1183,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1271,23 +1259,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1299,14 +1287,14 @@
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F6" s="55"/>
       <c r="G6" s="38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H6" s="64"/>
       <c r="I6" s="60"/>
@@ -1329,7 +1317,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1360,7 +1348,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1389,7 +1377,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1418,7 +1406,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1447,7 +1435,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1476,7 +1464,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1505,7 +1493,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1536,7 +1524,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1565,7 +1553,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1594,7 +1582,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1623,7 +1611,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2854,13 +2842,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2872,6 +2853,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2882,7 +2870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -2915,43 +2903,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="72"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -2996,58 +2984,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -3072,23 +3060,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3100,28 +3088,28 @@
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E6" s="39">
         <v>868004027154148</v>
       </c>
       <c r="F6" s="55"/>
       <c r="G6" s="38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H6" s="64"/>
       <c r="I6" s="60" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K6" s="52" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
@@ -3138,7 +3126,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3155,28 +3143,28 @@
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E7" s="39">
         <v>869668021841659</v>
       </c>
       <c r="F7" s="55"/>
       <c r="G7" s="38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="60" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K7" s="52" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L7" s="40"/>
       <c r="M7" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="40" t="s">
@@ -3193,7 +3181,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3208,28 +3196,28 @@
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E8" s="39">
         <v>869668021815901</v>
       </c>
       <c r="F8" s="55"/>
       <c r="G8" s="38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="60" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K8" s="52" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L8" s="40"/>
       <c r="M8" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="40" t="s">
@@ -3246,7 +3234,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3261,28 +3249,28 @@
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E9" s="39">
         <v>861693038241618</v>
       </c>
       <c r="F9" s="55"/>
       <c r="G9" s="38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="50" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K9" s="52" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L9" s="40"/>
       <c r="M9" s="40" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="40" t="s">
@@ -3292,14 +3280,14 @@
         <v>62</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="R9" s="38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3328,7 +3316,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3357,7 +3345,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3386,7 +3374,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3417,7 +3405,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3446,7 +3434,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3475,7 +3463,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3504,7 +3492,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4735,13 +4723,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4753,6 +4734,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4796,43 +4784,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="72"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -4877,58 +4865,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -4953,23 +4941,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4981,30 +4969,30 @@
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E6" s="39">
         <v>868183034636865</v>
       </c>
       <c r="F6" s="55"/>
       <c r="G6" s="38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H6" s="64"/>
       <c r="I6" s="60" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="40" t="s">
         <v>75</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>79</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
@@ -5014,14 +5002,14 @@
         <v>62</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5038,28 +5026,28 @@
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="38" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E7" s="39">
         <v>868183037800450</v>
       </c>
       <c r="F7" s="55"/>
       <c r="G7" s="38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="60" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L7" s="40"/>
       <c r="M7" s="40" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="40" t="s">
@@ -5069,14 +5057,14 @@
         <v>62</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="R7" s="38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5091,30 +5079,30 @@
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="38" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E8" s="39">
         <v>867717030431739</v>
       </c>
       <c r="F8" s="55"/>
       <c r="G8" s="38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="60" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="40" t="s">
         <v>83</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>87</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="40"/>
@@ -5123,7 +5111,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5138,30 +5126,30 @@
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="38" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E9" s="39">
         <v>868717030435284</v>
       </c>
       <c r="F9" s="55"/>
       <c r="G9" s="38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="50" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="40" t="s">
         <v>83</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="L9" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" s="40" t="s">
-        <v>87</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="40"/>
@@ -5170,7 +5158,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5185,25 +5173,25 @@
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E10" s="39">
         <v>868183037863227</v>
       </c>
       <c r="F10" s="55"/>
       <c r="G10" s="38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="50" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="40" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L10" s="67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M10" s="40" t="s">
         <v>38</v>
@@ -5223,7 +5211,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5238,30 +5226,30 @@
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="38" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E11" s="39">
         <v>868183034749163</v>
       </c>
       <c r="F11" s="55"/>
       <c r="G11" s="38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="60" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K11" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="40" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="40" t="s">
-        <v>79</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="40" t="s">
@@ -5271,14 +5259,14 @@
         <v>62</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="R11" s="38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5307,7 +5295,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5338,7 +5326,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5367,7 +5355,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5396,7 +5384,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5425,7 +5413,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6656,13 +6644,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6674,6 +6655,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6684,8 +6672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6717,43 +6705,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="72"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6798,58 +6786,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -6874,75 +6862,49 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37">
-        <v>44488</v>
-      </c>
-      <c r="C6" s="37">
-        <v>44489</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="39">
-        <v>868183034774492</v>
-      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="38"/>
-      <c r="G6" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="60" t="s">
-        <v>66</v>
-      </c>
+      <c r="G6" s="38"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="60"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="52" t="s">
-        <v>65</v>
-      </c>
+      <c r="K6" s="52"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="38" t="s">
-        <v>24</v>
-      </c>
+      <c r="O6" s="40"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6973,7 +6935,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7002,7 +6964,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7031,7 +6993,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7060,7 +7022,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7089,7 +7051,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7118,7 +7080,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7149,7 +7111,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7178,7 +7140,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7207,7 +7169,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7236,7 +7198,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7355,7 +7317,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -7824,7 +7786,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -7888,7 +7850,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -8467,13 +8429,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8485,6 +8440,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Techglobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="Cam HL-02" sheetId="36" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -300,9 +300,6 @@
     <t>NG, NCFW</t>
   </si>
   <si>
-    <t>BG</t>
-  </si>
-  <si>
     <t>LE.1.00.---06.191010</t>
   </si>
   <si>
@@ -331,6 +328,15 @@
   </si>
   <si>
     <t>Xử lý phần cứng, nạp lại fw</t>
+  </si>
+  <si>
+    <t>Khách không sửa chữa</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Không khắc phục được</t>
   </si>
 </sst>
 </file>
@@ -736,7 +742,22 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,21 +779,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1081,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1114,43 +1120,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1195,58 +1201,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1271,23 +1277,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1297,7 +1303,9 @@
       <c r="B6" s="37">
         <v>44501</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44518</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>73</v>
       </c>
@@ -1310,26 +1318,30 @@
       </c>
       <c r="H6" s="64"/>
       <c r="I6" s="60"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="K6" s="52"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>62</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1360,7 +1372,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1389,7 +1401,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1418,7 +1430,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1447,7 +1459,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1476,7 +1488,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1505,7 +1517,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1536,7 +1548,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1565,7 +1577,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1594,7 +1606,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1623,7 +1635,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1742,7 +1754,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -1774,7 +1786,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -2019,7 +2031,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -2211,7 +2223,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2393,7 +2405,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -2854,13 +2866,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2872,6 +2877,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2882,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2915,43 +2927,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -2996,58 +3008,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -3072,23 +3084,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3098,7 +3110,9 @@
       <c r="B6" s="37">
         <v>44501</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44518</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>70</v>
       </c>
@@ -3111,17 +3125,17 @@
       </c>
       <c r="H6" s="64"/>
       <c r="I6" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="K6" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
@@ -3138,7 +3152,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3153,7 +3167,9 @@
       <c r="B7" s="37">
         <v>44501</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44518</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>70</v>
       </c>
@@ -3166,17 +3182,17 @@
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K7" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L7" s="40"/>
       <c r="M7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="40" t="s">
@@ -3193,7 +3209,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3206,7 +3222,9 @@
       <c r="B8" s="37">
         <v>44501</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44518</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>70</v>
       </c>
@@ -3219,17 +3237,17 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K8" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L8" s="40"/>
       <c r="M8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="40" t="s">
@@ -3246,7 +3264,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3259,7 +3277,9 @@
       <c r="B9" s="37">
         <v>44501</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44518</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>70</v>
       </c>
@@ -3272,17 +3292,17 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K9" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L9" s="40"/>
       <c r="M9" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="40" t="s">
@@ -3299,7 +3319,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3328,7 +3348,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3357,7 +3377,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3386,7 +3406,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3417,7 +3437,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3446,7 +3466,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3475,7 +3495,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3504,7 +3524,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4735,13 +4755,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4753,6 +4766,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4763,8 +4783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView showZeros="0" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4796,43 +4816,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -4877,58 +4897,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -4953,23 +4973,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4979,7 +4999,9 @@
       <c r="B6" s="37">
         <v>44501</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44518</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>72</v>
       </c>
@@ -5021,7 +5043,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5036,7 +5058,9 @@
       <c r="B7" s="37">
         <v>44501</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44518</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>72</v>
       </c>
@@ -5055,7 +5079,7 @@
         <v>85</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L7" s="40"/>
       <c r="M7" s="40" t="s">
@@ -5076,7 +5100,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5089,7 +5113,9 @@
       <c r="B8" s="37">
         <v>44501</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44518</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>72</v>
       </c>
@@ -5114,16 +5140,24 @@
         <v>65</v>
       </c>
       <c r="M8" s="40" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5136,7 +5170,9 @@
       <c r="B9" s="37">
         <v>44501</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44518</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>72</v>
       </c>
@@ -5161,16 +5197,24 @@
         <v>65</v>
       </c>
       <c r="M9" s="40" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5183,7 +5227,9 @@
       <c r="B10" s="37">
         <v>44501</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37">
+        <v>44518</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>72</v>
       </c>
@@ -5223,7 +5269,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5236,7 +5282,9 @@
       <c r="B11" s="37">
         <v>44501</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="37">
+        <v>44518</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>72</v>
       </c>
@@ -5278,7 +5326,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5307,7 +5355,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5338,7 +5386,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5367,7 +5415,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5396,7 +5444,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5425,7 +5473,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5608,7 +5656,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -5789,7 +5837,7 @@
       </c>
       <c r="V28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W28" s="14"/>
     </row>
@@ -6077,7 +6125,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6195,7 +6243,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -6656,13 +6704,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6674,6 +6715,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6717,43 +6765,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6798,58 +6846,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -6874,23 +6922,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6942,7 +6990,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6973,7 +7021,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7002,7 +7050,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7031,7 +7079,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7060,7 +7108,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7089,7 +7137,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7118,7 +7166,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7149,7 +7197,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7178,7 +7226,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7207,7 +7255,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7236,7 +7284,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8467,13 +8515,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8485,6 +8526,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Techglobal.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="110">
   <si>
     <t>STT</t>
   </si>
@@ -370,6 +370,18 @@
   </si>
   <si>
     <t>TG102</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180405</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.121.016,01102</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi connector nguồn</t>
+  </si>
+  <si>
+    <t>Thay connector nguồn</t>
   </si>
 </sst>
 </file>
@@ -781,7 +793,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -803,21 +830,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1126,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1159,43 +1171,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1240,58 +1252,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -1316,23 +1328,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1366,7 +1378,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1393,19 +1405,35 @@
         <v>71</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="I7" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1442,7 +1470,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1471,7 +1499,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1500,7 +1528,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1529,7 +1557,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1558,7 +1586,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1589,7 +1617,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1618,7 +1646,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1647,7 +1675,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1676,7 +1704,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2907,13 +2935,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2925,6 +2946,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2968,43 +2996,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3049,58 +3077,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3125,23 +3153,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3195,7 +3223,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3252,7 +3280,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3309,7 +3337,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3366,7 +3394,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3421,7 +3449,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3478,7 +3506,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3515,7 +3543,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3554,7 +3582,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3591,7 +3619,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3628,7 +3656,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3665,7 +3693,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4936,13 +4964,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4954,6 +4975,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4997,43 +5025,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -5078,58 +5106,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5154,23 +5182,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5204,7 +5232,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5243,7 +5271,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5280,7 +5308,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5317,7 +5345,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5346,7 +5374,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5375,7 +5403,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5404,7 +5432,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5435,7 +5463,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5464,7 +5492,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5493,7 +5521,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5522,7 +5550,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6753,13 +6781,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6771,6 +6792,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6814,43 +6842,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -6895,58 +6923,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -6971,23 +6999,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7021,7 +7049,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7060,7 +7088,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7089,7 +7117,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7118,7 +7146,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7147,7 +7175,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7176,7 +7204,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7205,7 +7233,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7236,7 +7264,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7265,7 +7293,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7294,7 +7322,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7323,7 +7351,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8554,13 +8582,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8572,6 +8593,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8615,43 +8643,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -8696,58 +8724,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8772,23 +8800,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8822,7 +8850,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8861,7 +8889,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8898,7 +8926,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8935,7 +8963,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8972,7 +9000,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9001,7 +9029,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9030,7 +9058,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9061,7 +9089,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9090,7 +9118,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9119,7 +9147,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9148,7 +9176,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10379,13 +10407,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10397,6 +10418,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10440,43 +10468,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -10521,58 +10549,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -10597,23 +10625,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10665,7 +10693,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10722,7 +10750,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10777,7 +10805,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10832,7 +10860,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -10869,7 +10897,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10906,7 +10934,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10943,7 +10971,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -10982,7 +11010,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11019,7 +11047,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11056,7 +11084,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11085,7 +11113,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12316,13 +12344,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12334,6 +12355,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12377,43 +12405,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -12458,58 +12486,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12534,23 +12562,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12584,7 +12612,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -12623,7 +12651,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -12660,7 +12688,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -12697,7 +12725,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -12734,7 +12762,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -12771,7 +12799,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -12800,7 +12828,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -12831,7 +12859,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -12860,7 +12888,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -12889,7 +12917,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -12918,7 +12946,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -14149,13 +14177,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14167,6 +14188,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14210,43 +14238,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -14291,58 +14319,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -14367,23 +14395,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14431,7 +14459,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -14462,7 +14490,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -14491,7 +14519,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -14520,7 +14548,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -14549,7 +14577,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -14578,7 +14606,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -14607,7 +14635,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -14638,7 +14666,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -14667,7 +14695,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -14696,7 +14724,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -14725,7 +14753,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -15956,13 +15984,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15974,6 +15995,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16017,43 +16045,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -16098,58 +16126,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -16174,23 +16202,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16242,7 +16270,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -16273,7 +16301,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -16302,7 +16330,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -16331,7 +16359,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -16360,7 +16388,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -16389,7 +16417,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -16418,7 +16446,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -16449,7 +16477,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -16478,7 +16506,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -16507,7 +16535,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -16536,7 +16564,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -17767,13 +17795,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17785,6 +17806,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Techglobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="37" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="118">
   <si>
     <t>STT</t>
   </si>
@@ -382,6 +382,30 @@
   </si>
   <si>
     <t>Thay connector nguồn</t>
+  </si>
+  <si>
+    <t>Lock: s1.vsetcom.vn,10001</t>
+  </si>
+  <si>
+    <t>Thay module GSM</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.210415</t>
+  </si>
+  <si>
+    <t>Lock: 221.132.035.067,60214</t>
+  </si>
+  <si>
+    <t>Cấu hình lại baurate GPS</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>Lock: 014.225.007.016,01102</t>
   </si>
 </sst>
 </file>
@@ -793,22 +817,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -830,6 +839,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1138,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView showZeros="0" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1171,43 +1195,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1252,58 +1276,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -1328,23 +1352,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1366,19 +1390,33 @@
         <v>64</v>
       </c>
       <c r="H6" s="64"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="52"/>
+      <c r="I6" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>75</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="P6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1425,15 +1463,17 @@
         <v>61</v>
       </c>
       <c r="P7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1451,26 +1491,42 @@
         <v>44</v>
       </c>
       <c r="E8" s="39">
-        <v>866593020298284</v>
+        <v>868183033842456</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38" t="s">
         <v>71</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>115</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1499,7 +1555,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1528,7 +1584,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1557,7 +1613,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1586,7 +1642,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1617,7 +1673,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1646,7 +1702,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1675,7 +1731,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1704,7 +1760,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1855,7 +1911,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -2036,7 +2092,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -2100,7 +2156,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -2196,7 +2252,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -2356,7 +2412,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2935,6 +2991,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2946,13 +3009,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2996,43 +3052,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3077,58 +3133,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3153,23 +3209,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3223,7 +3279,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3280,7 +3336,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3337,7 +3393,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3394,7 +3450,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3449,7 +3505,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3506,7 +3562,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3543,7 +3599,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3582,7 +3638,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3619,7 +3675,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3656,7 +3712,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3693,7 +3749,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4964,6 +5020,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4975,13 +5038,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4992,8 +5048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5025,43 +5081,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -5106,58 +5162,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5182,23 +5238,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5220,9 +5276,13 @@
         <v>71</v>
       </c>
       <c r="H6" s="64"/>
-      <c r="I6" s="60"/>
+      <c r="I6" s="60" t="s">
+        <v>117</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="52"/>
+      <c r="K6" s="52" t="s">
+        <v>116</v>
+      </c>
       <c r="L6" s="40"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -5232,7 +5292,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5271,7 +5331,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5308,7 +5368,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5345,7 +5405,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5374,7 +5434,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5403,7 +5463,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5432,7 +5492,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5463,7 +5523,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5492,7 +5552,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5521,7 +5581,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5550,7 +5610,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6781,6 +6841,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6792,13 +6859,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6842,43 +6902,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -6923,58 +6983,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -6999,23 +7059,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7049,7 +7109,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7088,7 +7148,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7117,7 +7177,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7146,7 +7206,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7175,7 +7235,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7204,7 +7264,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7233,7 +7293,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7264,7 +7324,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7293,7 +7353,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7322,7 +7382,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7351,7 +7411,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8582,6 +8642,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8593,13 +8660,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8643,43 +8703,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -8724,58 +8784,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8800,23 +8860,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8850,7 +8910,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8889,7 +8949,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8926,7 +8986,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8963,7 +9023,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9000,7 +9060,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9029,7 +9089,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9058,7 +9118,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9089,7 +9149,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9118,7 +9178,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9147,7 +9207,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9176,7 +9236,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10407,6 +10467,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10418,13 +10485,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10468,43 +10528,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -10549,58 +10609,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -10625,23 +10685,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10693,7 +10753,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10750,7 +10810,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10805,7 +10865,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10860,7 +10920,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -10897,7 +10957,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10934,7 +10994,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10971,7 +11031,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -11010,7 +11070,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11047,7 +11107,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11084,7 +11144,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11113,7 +11173,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12344,6 +12404,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12355,13 +12422,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12405,43 +12465,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -12486,58 +12546,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12562,23 +12622,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12612,7 +12672,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -12651,7 +12711,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -12688,7 +12748,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -12725,7 +12785,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -12762,7 +12822,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -12799,7 +12859,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -12828,7 +12888,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -12859,7 +12919,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -12888,7 +12948,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -12917,7 +12977,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -12946,7 +13006,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -14177,6 +14237,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14188,13 +14255,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14238,43 +14298,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -14319,58 +14379,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -14395,23 +14455,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14459,7 +14519,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -14490,7 +14550,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -14519,7 +14579,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -14548,7 +14608,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -14577,7 +14637,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -14606,7 +14666,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -14635,7 +14695,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -14666,7 +14726,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -14695,7 +14755,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -14724,7 +14784,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -14753,7 +14813,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -15984,6 +16044,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15995,13 +16062,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16045,43 +16105,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -16126,58 +16186,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -16202,23 +16262,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16270,7 +16330,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -16301,7 +16361,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -16330,7 +16390,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -16359,7 +16419,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -16388,7 +16448,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -16417,7 +16477,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -16446,7 +16506,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -16477,7 +16537,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -16506,7 +16566,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -16535,7 +16595,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -16564,7 +16624,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -17795,6 +17855,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17806,13 +17873,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Techglobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="37" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="143">
   <si>
     <t>STT</t>
   </si>
@@ -406,6 +406,81 @@
   </si>
   <si>
     <t>Lock: 014.225.007.016,01102</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GSM</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn module GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>GSM,NCFW</t>
+  </si>
+  <si>
+    <t>123.031.043.235,09207</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GPS</t>
+  </si>
+  <si>
+    <t>GPS,NCFW</t>
+  </si>
+  <si>
+    <t>Xử lý lại anten GPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>TG.007S.---01.180115</t>
+  </si>
+  <si>
+    <t>203.162.121.044,09107</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module GSM</t>
+  </si>
+  <si>
+    <t>Imei mới: 862846048289733</t>
+  </si>
+  <si>
+    <t>29/11/21</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.121.026,09007</t>
+  </si>
+  <si>
+    <t>Thiết bị nhận sim</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180115 </t>
+  </si>
+  <si>
+    <t>Lock: 203.162.121.026,01102</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>Thiết bị mất cấu hình</t>
+  </si>
+  <si>
+    <t>Cấu hình lại thiết bị, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Thiết bị sai baurate GPS</t>
+  </si>
+  <si>
+    <t>Cấu hình lại baurate, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>MCH,NCFW</t>
   </si>
 </sst>
 </file>
@@ -1162,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3019,8 +3094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3575,7 +3650,9 @@
       <c r="B12" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="37" t="s">
+        <v>129</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>72</v>
       </c>
@@ -3587,16 +3664,34 @@
         <v>64</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="I12" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>124</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>123</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
       <c r="U12" s="78" t="s">
@@ -3663,16 +3758,34 @@
         <v>64</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="1"/>
+      <c r="I14" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="38"/>
+      <c r="O14" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>142</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
       <c r="U14" s="79"/>
@@ -3900,7 +4013,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3972,7 +4085,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -4153,7 +4266,7 @@
       </c>
       <c r="V28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W28" s="14"/>
     </row>
@@ -4281,7 +4394,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -4377,7 +4490,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4441,7 +4554,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -5048,8 +5161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5279,17 +5392,31 @@
       <c r="I6" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="K6" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>120</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
       <c r="U6" s="78" t="s">
@@ -5320,15 +5447,29 @@
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="60"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="40"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="P7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>37</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
       <c r="U7" s="79"/>
@@ -5356,16 +5497,32 @@
         <v>71</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="I8" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>133</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
       <c r="U8" s="79"/>
@@ -5393,16 +5550,34 @@
         <v>71</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="I9" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>136</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>137</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
       <c r="U9" s="79"/>
@@ -5729,7 +5904,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5761,7 +5936,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -5793,7 +5968,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -5942,7 +6117,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -6070,7 +6245,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -6134,7 +6309,7 @@
       </c>
       <c r="V33" s="10">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="14"/>
     </row>
@@ -6198,7 +6373,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -6262,7 +6437,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -8671,7 +8846,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8886,7 +9061,9 @@
       <c r="B6" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37" t="s">
+        <v>129</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>103</v>
       </c>
@@ -8897,17 +9074,35 @@
       <c r="G6" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="52"/>
+      <c r="H6" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>125</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" s="51">
+        <v>275000</v>
+      </c>
       <c r="O6" s="40"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="P6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
       <c r="U6" s="78" t="s">
@@ -9387,7 +9582,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -9568,7 +9763,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -9888,7 +10083,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -10495,7 +10690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Techglobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="37" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="140">
   <si>
     <t>STT</t>
   </si>
@@ -250,15 +250,6 @@
   </si>
   <si>
     <t>LE.3.00.---01.200923</t>
-  </si>
-  <si>
-    <t>device.vnpttracking.vn,36035</t>
-  </si>
-  <si>
-    <t>Nâng cấp FW cho thiết bị</t>
-  </si>
-  <si>
-    <t>20190219080435</t>
   </si>
   <si>
     <t>Techglobal</t>
@@ -892,7 +883,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -914,21 +920,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1237,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showZeros="0" topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1270,43 +1261,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="A1" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="74"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1351,58 +1342,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -1427,23 +1418,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1451,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
@@ -1466,22 +1457,22 @@
       </c>
       <c r="H6" s="64"/>
       <c r="I6" s="60" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K6" s="52" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40"/>
       <c r="P6" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>18</v>
@@ -1491,7 +1482,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1504,7 +1495,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="38" t="s">
@@ -1515,30 +1506,30 @@
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="60" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L7" s="40" t="s">
         <v>65</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="40" t="s">
         <v>61</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>18</v>
@@ -1548,7 +1539,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1559,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="38" t="s">
@@ -1570,28 +1561,28 @@
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L8" s="40"/>
       <c r="M8" s="40" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="40" t="s">
         <v>61</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>18</v>
@@ -1601,7 +1592,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1630,7 +1621,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1659,7 +1650,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1688,7 +1679,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1717,7 +1708,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1748,7 +1739,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1777,7 +1768,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1806,7 +1797,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1835,7 +1826,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3066,13 +3057,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3084,6 +3068,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3094,8 +3085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showZeros="0" topLeftCell="D5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3127,43 +3118,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="74"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3208,58 +3199,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3284,23 +3275,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3314,30 +3305,30 @@
         <v>44518</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E6" s="39">
         <v>868183034636865</v>
       </c>
       <c r="F6" s="55"/>
       <c r="G6" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H6" s="64"/>
       <c r="I6" s="60" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K6" s="40" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L6" s="40" t="s">
         <v>65</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
@@ -3347,14 +3338,14 @@
         <v>62</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3373,28 +3364,28 @@
         <v>44518</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E7" s="39">
         <v>868183037800450</v>
       </c>
       <c r="F7" s="55"/>
       <c r="G7" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="60" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L7" s="40"/>
       <c r="M7" s="40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="40" t="s">
@@ -3404,14 +3395,14 @@
         <v>62</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R7" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3428,47 +3419,47 @@
         <v>44518</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E8" s="39">
         <v>867717030431739</v>
       </c>
       <c r="F8" s="55"/>
       <c r="G8" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="60" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K8" s="40" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L8" s="40" t="s">
         <v>65</v>
       </c>
       <c r="M8" s="40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="40" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>62</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R8" s="38" t="s">
         <v>21</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3485,47 +3476,47 @@
         <v>44518</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E9" s="39">
         <v>868717030435284</v>
       </c>
       <c r="F9" s="55"/>
       <c r="G9" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="50" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L9" s="40" t="s">
         <v>65</v>
       </c>
       <c r="M9" s="40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="40" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>62</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R9" s="38" t="s">
         <v>21</v>
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3542,22 +3533,22 @@
         <v>44518</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E10" s="39">
         <v>868183037863227</v>
       </c>
       <c r="F10" s="55"/>
       <c r="G10" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="50" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="40" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L10" s="67" t="s">
         <v>65</v>
@@ -3580,7 +3571,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3597,30 +3588,30 @@
         <v>44518</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E11" s="39">
         <v>868183034749163</v>
       </c>
       <c r="F11" s="55"/>
       <c r="G11" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="60" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K11" s="40" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L11" s="40" t="s">
         <v>65</v>
       </c>
       <c r="M11" s="40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="40" t="s">
@@ -3630,14 +3621,14 @@
         <v>62</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R11" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3648,13 +3639,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E12" s="39">
         <v>868183038048067</v>
@@ -3665,36 +3656,36 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="60" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L12" s="40" t="s">
         <v>65</v>
       </c>
       <c r="M12" s="40" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="40" t="s">
         <v>61</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R12" s="38" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3707,18 +3698,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E13" s="39">
         <v>868183034642004</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="50"/>
@@ -3733,7 +3724,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3744,11 +3735,11 @@
         <v>9</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E14" s="39">
         <v>860157040202795</v>
@@ -3759,36 +3750,36 @@
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="50" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L14" s="40" t="s">
         <v>65</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="40" t="s">
         <v>61</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R14" s="38" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3799,18 +3790,18 @@
         <v>10</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E15" s="39">
         <v>868183034605747</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="50"/>
@@ -3825,7 +3816,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3836,11 +3827,11 @@
         <v>11</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E16" s="39">
         <v>868183037874695</v>
@@ -3862,7 +3853,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3873,11 +3864,11 @@
         <v>12</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E17" s="39">
         <v>868183037814436</v>
@@ -3908,18 +3899,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E18" s="39">
         <v>868183034582192</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="60"/>
@@ -3943,18 +3934,18 @@
         <v>14</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E19" s="39">
         <v>867717030618095</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="60"/>
@@ -3982,11 +3973,11 @@
         <v>15</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E20" s="39">
         <v>868183038069618</v>
@@ -4022,18 +4013,18 @@
         <v>16</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E21" s="39">
         <v>867717030422951</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="60"/>
@@ -5133,13 +5124,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5151,6 +5135,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5161,8 +5152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView showZeros="0" topLeftCell="K4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5194,43 +5185,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="A1" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="74"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -5275,58 +5266,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5351,23 +5342,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5375,51 +5366,51 @@
         <v>1</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E6" s="39">
         <v>862846048281607</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H6" s="64"/>
       <c r="I6" s="60" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K6" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
         <v>61</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5432,37 +5423,37 @@
         <v>2</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E7" s="39">
         <v>868926033981900</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="60"/>
       <c r="J7" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="40"/>
       <c r="P7" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>19</v>
@@ -5472,7 +5463,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5483,39 +5474,39 @@
         <v>3</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E8" s="39">
         <v>868345031031669</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="60" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L8" s="40"/>
       <c r="M8" s="40" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="40" t="s">
         <v>61</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>18</v>
@@ -5525,7 +5516,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5536,51 +5527,51 @@
         <v>4</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E9" s="39">
         <v>868345035600121</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="50" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M9" s="40" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="40" t="s">
         <v>61</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R9" s="38" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5609,7 +5600,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5638,7 +5629,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5667,7 +5658,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5698,7 +5689,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5727,7 +5718,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5756,7 +5747,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5785,7 +5776,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7016,13 +7007,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7034,6 +7018,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7044,8 +7035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showZeros="0" topLeftCell="K4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7077,43 +7068,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="A1" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="74"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -7158,58 +7149,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -7234,23 +7225,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7258,18 +7249,18 @@
         <v>1</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E6" s="39">
         <v>866104022161296</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H6" s="64"/>
       <c r="I6" s="60"/>
@@ -7284,7 +7275,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7297,18 +7288,18 @@
         <v>2</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E7" s="39">
         <v>861694037960760</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="60"/>
@@ -7323,7 +7314,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7352,7 +7343,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7381,7 +7372,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7410,7 +7401,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7439,7 +7430,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7468,7 +7459,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7499,7 +7490,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7528,7 +7519,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7557,7 +7548,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7586,7 +7577,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8817,13 +8808,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8835,6 +8819,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8845,8 +8836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showZeros="0" topLeftCell="K4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8878,43 +8869,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="A1" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="74"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -8959,58 +8950,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -9035,23 +9026,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9059,43 +9050,43 @@
         <v>1</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E6" s="39">
         <v>869696043475685</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I6" s="60" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K6" s="52" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N6" s="51">
         <v>275000</v>
       </c>
       <c r="O6" s="40"/>
       <c r="P6" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>18</v>
@@ -9105,7 +9096,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9118,18 +9109,18 @@
         <v>2</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E7" s="39">
         <v>865209034379124</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="60"/>
@@ -9144,7 +9135,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9155,18 +9146,18 @@
         <v>3</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E8" s="39">
         <v>865209034446980</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="60"/>
@@ -9181,7 +9172,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9192,18 +9183,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E9" s="39">
         <v>869696043532097</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="50"/>
@@ -9218,7 +9209,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9229,18 +9220,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E10" s="39">
         <v>865209034355371</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="60"/>
@@ -9255,7 +9246,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9284,7 +9275,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9313,7 +9304,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9344,7 +9335,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9373,7 +9364,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9402,7 +9393,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9431,7 +9422,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10662,13 +10653,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10680,6 +10664,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10690,8 +10681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10723,43 +10714,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="74"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -10804,58 +10795,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -10880,23 +10871,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10910,28 +10901,28 @@
         <v>44518</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E6" s="39">
         <v>868004027154148</v>
       </c>
       <c r="F6" s="55"/>
       <c r="G6" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H6" s="64"/>
       <c r="I6" s="60" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K6" s="52" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
@@ -10948,7 +10939,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10967,28 +10958,28 @@
         <v>44518</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E7" s="39">
         <v>869668021841659</v>
       </c>
       <c r="F7" s="55"/>
       <c r="G7" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="60" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K7" s="52" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L7" s="40"/>
       <c r="M7" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="40" t="s">
@@ -11005,7 +10996,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11022,28 +11013,28 @@
         <v>44518</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E8" s="39">
         <v>869668021815901</v>
       </c>
       <c r="F8" s="55"/>
       <c r="G8" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="60" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K8" s="52" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L8" s="40"/>
       <c r="M8" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="40" t="s">
@@ -11060,7 +11051,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11077,28 +11068,28 @@
         <v>44518</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E9" s="39">
         <v>861693038241618</v>
       </c>
       <c r="F9" s="55"/>
       <c r="G9" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="50" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K9" s="52" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L9" s="40"/>
       <c r="M9" s="40" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="40" t="s">
@@ -11108,14 +11099,14 @@
         <v>62</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R9" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -11126,18 +11117,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E10" s="39">
         <v>868004026310865</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="60"/>
@@ -11152,7 +11143,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11163,18 +11154,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E11" s="39">
         <v>869668021839745</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="60"/>
@@ -11189,7 +11180,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11200,18 +11191,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E12" s="39">
         <v>866593020298284</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="60"/>
@@ -11226,7 +11217,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -11239,18 +11230,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E13" s="39">
         <v>867330021475671</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="50"/>
@@ -11265,7 +11256,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11276,18 +11267,18 @@
         <v>9</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E14" s="39">
         <v>861693037598844</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="50"/>
@@ -11302,7 +11293,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11313,18 +11304,18 @@
         <v>10</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E15" s="39">
         <v>869668023313301</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="50"/>
@@ -11339,7 +11330,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11368,7 +11359,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12599,13 +12590,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12617,6 +12601,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12628,7 +12619,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B6" sqref="B6:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12660,43 +12651,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="A1" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="74"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -12741,58 +12732,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12817,23 +12808,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12841,18 +12832,18 @@
         <v>1</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E6" s="39">
         <v>864161029428542</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H6" s="64"/>
       <c r="I6" s="60"/>
@@ -12867,7 +12858,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -12880,18 +12871,18 @@
         <v>2</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="38" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E7" s="39">
         <v>864161026899612</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="60"/>
@@ -12906,7 +12897,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -12917,18 +12908,18 @@
         <v>3</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="38" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E8" s="39">
         <v>13227004358622</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="60"/>
@@ -12943,7 +12934,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -12954,18 +12945,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="38" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E9" s="39">
         <v>862118029939946</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="50"/>
@@ -12980,7 +12971,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -12991,18 +12982,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E10" s="39">
         <v>865904020081524</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="60"/>
@@ -13017,7 +13008,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -13028,18 +13019,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="38" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E11" s="39">
         <v>862118021594780</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="60"/>
@@ -13054,7 +13045,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -13083,7 +13074,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -13114,7 +13105,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -13143,7 +13134,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -13172,7 +13163,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -13201,7 +13192,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -14432,13 +14423,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14450,6 +14434,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14460,8 +14451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView showZeros="0" topLeftCell="J4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14493,43 +14484,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="74"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -14574,58 +14565,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -14650,23 +14641,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14680,14 +14671,14 @@
         <v>44518</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F6" s="55"/>
       <c r="G6" s="38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H6" s="64"/>
       <c r="I6" s="60"/>
@@ -14697,11 +14688,11 @@
       <c r="K6" s="52"/>
       <c r="L6" s="40"/>
       <c r="M6" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>62</v>
@@ -14714,7 +14705,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -14745,7 +14736,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -14774,7 +14765,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -14803,7 +14794,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -14832,7 +14823,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -14861,7 +14852,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -14890,7 +14881,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -14921,7 +14912,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -14950,7 +14941,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -14979,7 +14970,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -15008,7 +14999,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -16239,13 +16230,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16257,6 +16241,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16267,8 +16258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16300,43 +16291,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="74"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -16381,58 +16372,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -16457,75 +16448,71 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37">
-        <v>44488</v>
-      </c>
-      <c r="C6" s="37">
-        <v>44489</v>
-      </c>
+      <c r="B6" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="39">
-        <v>868183034774492</v>
+        <v>868183038553389</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="64" t="s">
-        <v>68</v>
-      </c>
+      <c r="H6" s="64"/>
       <c r="I6" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="K6" s="52" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="1" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="40" t="s">
-        <v>61</v>
-      </c>
+      <c r="O6" s="40"/>
       <c r="P6" s="1" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -16537,26 +16524,52 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="37" t="s">
+        <v>98</v>
+      </c>
       <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="D7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="39">
+        <v>867717030624812</v>
+      </c>
       <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>68</v>
+      </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="I7" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -16566,26 +16579,50 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="37" t="s">
+        <v>98</v>
+      </c>
       <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868183033842456</v>
+      </c>
       <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="42"/>
+      <c r="G8" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="M8" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -16614,7 +16651,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -16643,7 +16680,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -16672,7 +16709,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -16701,7 +16738,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -16732,7 +16769,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -16761,7 +16798,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -16790,7 +16827,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -16819,7 +16856,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -16938,7 +16975,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -16970,7 +17007,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -17151,7 +17188,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -17215,7 +17252,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -17311,7 +17348,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -17407,7 +17444,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -17471,7 +17508,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -18050,13 +18087,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -18068,6 +18098,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Techglobal.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="8"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="37" r:id="rId1"/>
     <sheet name="TG007X" sheetId="34" r:id="rId2"/>
     <sheet name="TG102V" sheetId="39" r:id="rId3"/>
-    <sheet name="TG102SE" sheetId="42" r:id="rId4"/>
-    <sheet name="TG007S" sheetId="38" r:id="rId5"/>
+    <sheet name="TG007S" sheetId="38" r:id="rId4"/>
+    <sheet name="TG102SE" sheetId="42" r:id="rId5"/>
     <sheet name="TG007" sheetId="35" r:id="rId6"/>
     <sheet name="TG102" sheetId="40" r:id="rId7"/>
     <sheet name="Cam HL-02" sheetId="36" r:id="rId8"/>
@@ -25,20 +25,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Cam HL-02'!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'TG007'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TG007S!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG007S!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG007X!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'TG102'!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TG102SE!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">TongThang!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="7">'Cam HL-02'!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="5">'TG007'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="4">TG007S!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TG007S!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">TG007X!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="6">'TG102'!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">TG102SE!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="8">TongThang!$S$4:$S$51</definedName>
   </definedNames>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="174">
   <si>
     <t>STT</t>
   </si>
@@ -473,6 +473,108 @@
   <si>
     <t>MCH,NCFW</t>
   </si>
+  <si>
+    <t>Lock: 124.158.005.054,10214</t>
+  </si>
+  <si>
+    <t>Xử lý lại connector nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>Thiết bị không restore</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>LE.1.00.---04.181025</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.121.026,09207</t>
+  </si>
+  <si>
+    <t>ID: 868183037852030</t>
+  </si>
+  <si>
+    <t>Lock: 123.031.030.077,09207</t>
+  </si>
+  <si>
+    <t>Xử lý lại phần cứng,  nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Lock: 014.225.007.016,09207</t>
+  </si>
+  <si>
+    <t>Rơi anten GSM</t>
+  </si>
+  <si>
+    <t>Hàn lại anten GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Mạch oxi hóa</t>
+  </si>
+  <si>
+    <t>Không sửa chữa</t>
+  </si>
+  <si>
+    <t>Lock: 112.078.011.006,13368</t>
+  </si>
+  <si>
+    <t>TG.007S.---01.180405</t>
+  </si>
+  <si>
+    <t>203.162.121.026,09107</t>
+  </si>
+  <si>
+    <t>Cấu hình lại thiết bị</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.121.024,09107</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180115</t>
+  </si>
+  <si>
+    <t>Lock: 124.158.5.54,10214</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn</t>
+  </si>
+  <si>
+    <t>Thay ic nguồn 4v4, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Lock: 221.132.035.067,10214</t>
+  </si>
+  <si>
+    <t>Lỗi chân anten GPS</t>
+  </si>
+  <si>
+    <t>Hàn lại chân anten</t>
+  </si>
+  <si>
+    <t>Thay diode quá áp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG.007.---14.060116 </t>
+  </si>
+  <si>
+    <t>Lock: 014.225.007.016,09007</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.121.024,09007</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
 </sst>
 </file>
 
@@ -552,7 +654,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,6 +670,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -883,22 +991,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -921,6 +1020,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1228,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S8"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1261,43 +1378,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1342,58 +1459,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -1418,23 +1535,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1482,7 +1599,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1539,7 +1656,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1592,7 +1709,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1621,7 +1738,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1650,7 +1767,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1679,7 +1796,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1708,7 +1825,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1739,7 +1856,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1768,7 +1885,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1797,7 +1914,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1826,7 +1943,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3057,6 +3174,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3068,13 +3192,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3085,8 +3202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S21"/>
+    <sheetView showZeros="0" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3118,43 +3235,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3199,58 +3316,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3275,23 +3392,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3345,7 +3462,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3402,7 +3519,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3459,7 +3576,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3516,7 +3633,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3571,7 +3688,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3628,7 +3745,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3685,7 +3802,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3712,19 +3829,35 @@
         <v>68</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
+      <c r="L13" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="38"/>
+      <c r="O13" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3779,7 +3912,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3804,19 +3937,35 @@
         <v>68</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="50"/>
+      <c r="I15" s="50" t="s">
+        <v>146</v>
+      </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="K15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="38"/>
+      <c r="O15" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3841,19 +3990,37 @@
         <v>64</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="I16" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="40" t="s">
+        <v>152</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
+      <c r="O16" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q16" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>134</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3878,16 +4045,34 @@
         <v>64</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
+      <c r="I17" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>141</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="38"/>
+      <c r="O17" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>142</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
       <c r="U17" s="54"/>
@@ -3913,16 +4098,34 @@
         <v>68</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
+      <c r="I18" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N18" s="41"/>
+      <c r="O18" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R18" s="38" t="s">
+        <v>134</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
@@ -3947,17 +4150,37 @@
       <c r="G19" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="H19" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="N19" s="41"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="38"/>
+      <c r="O19" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R19" s="38" t="s">
+        <v>134</v>
+      </c>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
       <c r="U19" s="53" t="s">
@@ -3987,16 +4210,32 @@
         <v>64</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="1"/>
+      <c r="I20" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="10"/>
+      <c r="O20" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="S20" s="4"/>
       <c r="T20" s="14"/>
       <c r="U20" s="10" t="s">
@@ -4004,7 +4243,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -4028,15 +4267,27 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="60"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="10"/>
+      <c r="O21" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="S21" s="4"/>
       <c r="T21" s="14"/>
       <c r="U21" s="10" t="s">
@@ -4044,7 +4295,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -4076,7 +4327,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -4289,7 +4540,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -4353,7 +4604,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4449,7 +4700,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -4481,7 +4732,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4545,7 +4796,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4663,7 +4914,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -4898,7 +5149,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -5124,6 +5375,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5135,13 +5393,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5185,43 +5436,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -5266,58 +5517,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5342,23 +5593,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5410,7 +5661,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5463,7 +5714,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5516,7 +5767,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5571,7 +5822,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5600,7 +5851,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5629,7 +5880,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5658,7 +5909,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5689,7 +5940,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5718,7 +5969,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5747,7 +5998,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5776,7 +6027,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7007,6 +7258,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7018,13 +7276,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7035,8 +7286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S7"/>
+    <sheetView showZeros="0" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7068,43 +7319,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -7149,58 +7400,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -7225,23 +7476,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7251,31 +7502,53 @@
       <c r="B6" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37" t="s">
+        <v>126</v>
+      </c>
       <c r="D6" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" s="39">
-        <v>866104022161296</v>
+        <v>869696043475685</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="52"/>
+      <c r="H6" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>122</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="M6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N6" s="51">
+        <v>275000</v>
+      </c>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7292,29 +7565,45 @@
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" s="39">
-        <v>861694037960760</v>
+        <v>865209034379124</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38" t="s">
         <v>68</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="60"/>
+      <c r="I7" s="60" t="s">
+        <v>157</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="K7" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7324,26 +7613,48 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="37" t="s">
+        <v>98</v>
+      </c>
       <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="D8" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="39">
+        <v>865209034446980</v>
+      </c>
       <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="13"/>
+      <c r="G8" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>159</v>
+      </c>
       <c r="I8" s="60"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="51">
+        <v>275000</v>
+      </c>
       <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="P8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7353,26 +7664,48 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="37" t="s">
+        <v>98</v>
+      </c>
       <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="D9" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="39">
+        <v>869696043532097</v>
+      </c>
       <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>68</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="50"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="L9" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>158</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7382,26 +7715,50 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="37" t="s">
+        <v>98</v>
+      </c>
       <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="D10" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="39">
+        <v>865209034355371</v>
+      </c>
       <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>68</v>
+      </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="40"/>
+      <c r="I10" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>122</v>
+      </c>
       <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" s="51">
+        <v>275000</v>
+      </c>
       <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="P10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7430,7 +7787,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7459,7 +7816,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7490,7 +7847,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7519,7 +7876,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7548,7 +7905,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7577,7 +7934,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7696,7 +8053,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -7728,7 +8085,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -7909,7 +8266,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -8069,7 +8426,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -8165,7 +8522,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -8229,7 +8586,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -8582,7 +8939,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -8808,6 +9165,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8819,13 +9183,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8836,8 +9193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S10"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8869,43 +9226,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -8950,58 +9307,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -9026,23 +9383,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9052,30 +9409,24 @@
       <c r="B6" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>126</v>
-      </c>
+      <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E6" s="39">
-        <v>869696043475685</v>
+        <v>866104022161296</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="I6" s="60" t="s">
-        <v>123</v>
-      </c>
+      <c r="H6" s="64"/>
+      <c r="I6" s="60"/>
       <c r="J6" s="1" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="K6" s="52" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="1" t="s">
@@ -9096,7 +9447,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9113,29 +9464,47 @@
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E7" s="39">
-        <v>865209034379124</v>
+        <v>861694037960760</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38" t="s">
         <v>68</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="I7" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N7" s="51">
+        <v>63000</v>
+      </c>
       <c r="O7" s="40"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="P7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9145,20 +9514,12 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>98</v>
-      </c>
+      <c r="B8" s="37"/>
       <c r="C8" s="37"/>
-      <c r="D8" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="39">
-        <v>865209034446980</v>
-      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="38"/>
-      <c r="G8" s="38" t="s">
-        <v>68</v>
-      </c>
+      <c r="G8" s="38"/>
       <c r="H8" s="13"/>
       <c r="I8" s="60"/>
       <c r="J8" s="1"/>
@@ -9172,7 +9533,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9182,20 +9543,12 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>98</v>
-      </c>
+      <c r="B9" s="37"/>
       <c r="C9" s="37"/>
-      <c r="D9" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="39">
-        <v>869696043532097</v>
-      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="38"/>
-      <c r="G9" s="38" t="s">
-        <v>68</v>
-      </c>
+      <c r="G9" s="38"/>
       <c r="H9" s="1"/>
       <c r="I9" s="50"/>
       <c r="J9" s="1"/>
@@ -9209,7 +9562,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9219,20 +9572,12 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>98</v>
-      </c>
+      <c r="B10" s="37"/>
       <c r="C10" s="37"/>
-      <c r="D10" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="39">
-        <v>865209034355371</v>
-      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="38"/>
-      <c r="G10" s="38" t="s">
-        <v>68</v>
-      </c>
+      <c r="G10" s="38"/>
       <c r="H10" s="1"/>
       <c r="I10" s="60"/>
       <c r="J10" s="1"/>
@@ -9246,7 +9591,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9275,7 +9620,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9304,7 +9649,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9335,7 +9680,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9364,7 +9709,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9393,7 +9738,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9422,7 +9767,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9573,7 +9918,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -9818,7 +10163,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -10074,7 +10419,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -10653,6 +10998,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10664,13 +11016,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10681,8 +11026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S16"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="H4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10714,43 +11059,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -10795,58 +11140,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -10871,23 +11216,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10939,7 +11284,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10996,7 +11341,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11051,7 +11396,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11106,7 +11451,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -11123,7 +11468,7 @@
       <c r="D10" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="85">
         <v>868004026310865</v>
       </c>
       <c r="F10" s="38"/>
@@ -11143,7 +11488,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11160,27 +11505,43 @@
       <c r="D11" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="39">
-        <v>869668021839745</v>
+      <c r="E11" s="85">
+        <v>869668021820695</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="38" t="s">
         <v>68</v>
       </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="M11" s="40" t="s">
+        <v>173</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11197,7 +11558,7 @@
       <c r="D12" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="85">
         <v>866593020298284</v>
       </c>
       <c r="F12" s="38"/>
@@ -11205,19 +11566,35 @@
         <v>68</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="60" t="s">
+        <v>170</v>
+      </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="K12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -11236,7 +11613,7 @@
       <c r="D13" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="85">
         <v>867330021475671</v>
       </c>
       <c r="F13" s="38"/>
@@ -11245,18 +11622,32 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="50"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
+      <c r="M13" s="40" t="s">
+        <v>158</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="38"/>
+      <c r="O13" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11274,26 +11665,42 @@
         <v>67</v>
       </c>
       <c r="E14" s="39">
-        <v>861693037598844</v>
+        <v>867330021519098</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38" t="s">
         <v>68</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="I14" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="L14" s="40"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="M14" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="N14" s="51">
+        <v>12000</v>
+      </c>
       <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="38"/>
+      <c r="P14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11310,7 +11717,7 @@
       <c r="D15" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="85">
         <v>869668023313301</v>
       </c>
       <c r="F15" s="38"/>
@@ -11318,19 +11725,35 @@
         <v>68</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="M15" s="40" t="s">
+        <v>167</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="38"/>
+      <c r="O15" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11359,7 +11782,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11478,7 +11901,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -11510,7 +11933,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -11723,7 +12146,7 @@
       </c>
       <c r="V28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="14"/>
     </row>
@@ -11755,7 +12178,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -11851,7 +12274,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -11947,7 +12370,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -11979,7 +12402,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -12011,7 +12434,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -12590,6 +13013,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12601,13 +13031,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12651,43 +13074,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -12732,58 +13155,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12808,23 +13231,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12858,7 +13281,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -12897,7 +13320,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -12934,7 +13357,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -12971,7 +13394,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -13008,7 +13431,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -13045,7 +13468,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -13074,7 +13497,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -13105,7 +13528,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -13134,7 +13557,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -13163,7 +13586,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -13192,7 +13615,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -14423,6 +14846,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14434,13 +14864,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14484,43 +14907,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -14565,58 +14988,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -14641,23 +15064,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14705,7 +15128,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -14736,7 +15159,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -14765,7 +15188,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -14794,7 +15217,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -14823,7 +15246,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -14852,7 +15275,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -14881,7 +15304,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -14912,7 +15335,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -14941,7 +15364,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -14970,7 +15393,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -14999,7 +15422,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -16230,6 +16653,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16241,13 +16671,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16258,7 +16681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -16291,43 +16714,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -16372,58 +16795,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -16448,23 +16871,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16512,7 +16935,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -16569,7 +16992,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -16622,7 +17045,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -16651,7 +17074,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -16680,7 +17103,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -16709,7 +17132,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -16738,7 +17161,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -16769,7 +17192,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -16798,7 +17221,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -16827,7 +17250,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -16856,7 +17279,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -18087,6 +18510,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -18098,13 +18528,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Techglobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="37" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="190">
   <si>
     <t>STT</t>
   </si>
@@ -574,6 +574,54 @@
   </si>
   <si>
     <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00002.180125</t>
+  </si>
+  <si>
+    <t>Không khởi động được thiết bị</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00001.221117</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.121.025,09008</t>
+  </si>
+  <si>
+    <t>Chập module GSM</t>
+  </si>
+  <si>
+    <t>013227004358622</t>
+  </si>
+  <si>
+    <t>203.162.121.025,09004</t>
+  </si>
+  <si>
+    <t>Thay ic giao tiếp, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Kiểm tra lại hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>X.2.28</t>
+  </si>
+  <si>
+    <t>221.132.035.067,10304</t>
+  </si>
+  <si>
+    <t>Kiểm tra lại hạn dịch vụ, 'ID: 1029428542</t>
+  </si>
+  <si>
+    <t>Thiết bị cháy led memory</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW, thay led</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi bộ nhơ</t>
+  </si>
+  <si>
+    <t>Thay bộ nhớ</t>
   </si>
 </sst>
 </file>
@@ -654,7 +702,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -670,12 +718,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1036,7 +1078,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11026,8 +11071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="H4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11664,7 +11709,7 @@
       <c r="D14" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="85">
         <v>867330021519098</v>
       </c>
       <c r="F14" s="38"/>
@@ -13041,8 +13086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S11"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13268,17 +13313,37 @@
       <c r="G6" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
+      <c r="H6" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>134</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
       <c r="U6" s="80" t="s">
@@ -13307,17 +13372,35 @@
       <c r="G7" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="60"/>
+      <c r="H7" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="60" t="s">
+        <v>180</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="K7" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N7" s="51">
+        <v>38000</v>
+      </c>
       <c r="O7" s="40"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="P7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
       <c r="U7" s="81"/>
@@ -13337,8 +13420,8 @@
       <c r="D8" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="39">
-        <v>13227004358622</v>
+      <c r="E8" s="86" t="s">
+        <v>179</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38" t="s">
@@ -13346,15 +13429,29 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="60"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="1"/>
+      <c r="M8" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="N8" s="51">
+        <v>138000</v>
+      </c>
       <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="P8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
       <c r="U8" s="81"/>
@@ -13382,16 +13479,32 @@
         <v>68</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="50"/>
+      <c r="I9" s="50" t="s">
+        <v>177</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="K9" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
       <c r="U9" s="81"/>
@@ -13420,15 +13533,27 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="60"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="K10" s="40"/>
       <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="1"/>
+      <c r="M10" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" s="51">
+        <v>450000</v>
+      </c>
       <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="P10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
       <c r="U10" s="81"/>
@@ -13456,16 +13581,32 @@
         <v>68</v>
       </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="M11" s="40" t="s">
+        <v>144</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
       <c r="U11" s="81"/>
@@ -13734,7 +13875,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -13766,7 +13907,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -13798,7 +13939,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -13947,7 +14088,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -14075,7 +14216,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -14107,7 +14248,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -14203,7 +14344,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -14267,7 +14408,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -14620,7 +14761,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Techglobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="37" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="191">
   <si>
     <t>STT</t>
   </si>
@@ -618,10 +618,13 @@
     <t>Nâng cấp FW, thay led</t>
   </si>
   <si>
-    <t>Thiết bị lỗi bộ nhơ</t>
-  </si>
-  <si>
     <t>Thay bộ nhớ</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi bộ nhớ</t>
+  </si>
+  <si>
+    <t>Imei mới: 868183033790879</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1042,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1062,27 +1086,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1390,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1423,43 +1426,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1504,58 +1507,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -1580,23 +1583,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1617,7 +1620,9 @@
       <c r="G6" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="64"/>
+      <c r="H6" s="64" t="s">
+        <v>190</v>
+      </c>
       <c r="I6" s="60" t="s">
         <v>107</v>
       </c>
@@ -1644,7 +1649,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1701,7 +1706,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1754,7 +1759,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1783,7 +1788,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1812,7 +1817,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1841,7 +1846,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1870,7 +1875,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1901,7 +1906,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1930,7 +1935,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1959,7 +1964,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1988,7 +1993,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3219,13 +3224,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3237,6 +3235,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3247,8 +3252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showZeros="0" topLeftCell="J5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3280,43 +3285,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3361,58 +3366,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3437,23 +3442,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3507,7 +3512,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3564,7 +3569,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3621,7 +3626,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3678,7 +3683,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3733,7 +3738,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3790,7 +3795,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3847,7 +3852,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3902,7 +3907,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3957,7 +3962,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4010,7 +4015,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4065,7 +4070,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5420,13 +5425,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5438,6 +5436,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5449,7 +5454,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="K4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:T10"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5481,43 +5486,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -5562,58 +5567,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5638,23 +5643,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5706,7 +5711,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5759,7 +5764,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5812,7 +5817,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5867,7 +5872,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5896,7 +5901,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5925,7 +5930,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5954,7 +5959,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5985,7 +5990,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6014,7 +6019,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -6043,7 +6048,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -6072,7 +6077,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7303,13 +7308,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7321,6 +7319,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7331,8 +7336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7364,43 +7369,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -7445,58 +7450,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -7521,23 +7526,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7593,7 +7598,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7648,7 +7653,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7683,7 +7688,9 @@
         <v>122</v>
       </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="N8" s="51">
         <v>275000</v>
       </c>
@@ -7699,7 +7706,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7750,7 +7757,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7803,7 +7810,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7832,7 +7839,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7861,7 +7868,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7892,7 +7899,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7921,7 +7928,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7950,7 +7957,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7979,7 +7986,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9210,13 +9217,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9228,6 +9228,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9238,8 +9245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showZeros="0" topLeftCell="G4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9271,43 +9278,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -9352,58 +9359,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -9428,23 +9435,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9492,7 +9499,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9549,7 +9556,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9578,7 +9585,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9607,7 +9614,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9636,7 +9643,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9665,7 +9672,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9694,7 +9701,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9725,7 +9732,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9754,7 +9761,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9783,7 +9790,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9812,7 +9819,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11043,13 +11050,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -11061,6 +11061,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11071,8 +11078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showZeros="0" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11104,43 +11111,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -11185,58 +11192,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -11261,23 +11268,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11329,7 +11336,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -11386,7 +11393,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11441,7 +11448,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11496,7 +11503,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -11513,7 +11520,7 @@
       <c r="D10" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="72">
         <v>868004026310865</v>
       </c>
       <c r="F10" s="38"/>
@@ -11533,7 +11540,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11550,7 +11557,7 @@
       <c r="D11" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="72">
         <v>869668021820695</v>
       </c>
       <c r="F11" s="38"/>
@@ -11586,7 +11593,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11603,7 +11610,7 @@
       <c r="D12" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="85">
+      <c r="E12" s="72">
         <v>866593020298284</v>
       </c>
       <c r="F12" s="38"/>
@@ -11639,7 +11646,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -11658,7 +11665,7 @@
       <c r="D13" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="85">
+      <c r="E13" s="72">
         <v>867330021475671</v>
       </c>
       <c r="F13" s="38"/>
@@ -11692,7 +11699,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11709,7 +11716,7 @@
       <c r="D14" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="85">
+      <c r="E14" s="72">
         <v>867330021519098</v>
       </c>
       <c r="F14" s="38"/>
@@ -11745,7 +11752,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11762,7 +11769,7 @@
       <c r="D15" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="85">
+      <c r="E15" s="72">
         <v>869668023313301</v>
       </c>
       <c r="F15" s="38"/>
@@ -11798,7 +11805,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11827,7 +11834,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -13058,13 +13065,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13076,6 +13076,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13086,8 +13093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView showZeros="0" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" activeCellId="1" sqref="J8 E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13119,43 +13126,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -13200,58 +13207,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -13276,23 +13283,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13346,7 +13353,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -13403,7 +13410,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -13420,7 +13427,7 @@
       <c r="D8" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="73" t="s">
         <v>179</v>
       </c>
       <c r="F8" s="38"/>
@@ -13430,14 +13437,14 @@
       <c r="H8" s="13"/>
       <c r="I8" s="60"/>
       <c r="J8" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>174</v>
       </c>
       <c r="L8" s="40"/>
       <c r="M8" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N8" s="51">
         <v>138000</v>
@@ -13454,7 +13461,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -13507,7 +13514,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -13556,7 +13563,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -13609,7 +13616,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -13638,7 +13645,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -13669,7 +13676,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -13698,7 +13705,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -13727,7 +13734,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -13756,7 +13763,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -14987,13 +14994,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15005,6 +15005,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15048,43 +15055,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -15129,58 +15136,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -15205,23 +15212,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15269,7 +15276,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -15300,7 +15307,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -15329,7 +15336,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -15358,7 +15365,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -15387,7 +15394,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -15416,7 +15423,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -15445,7 +15452,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -15476,7 +15483,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -15505,7 +15512,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -15534,7 +15541,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -15563,7 +15570,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -16794,13 +16801,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16812,6 +16812,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16855,43 +16862,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -16936,58 +16943,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -17012,23 +17019,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17076,7 +17083,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -17133,7 +17140,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -17186,7 +17193,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -17215,7 +17222,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -17244,7 +17251,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -17273,7 +17280,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -17302,7 +17309,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -17333,7 +17340,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -17362,7 +17369,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -17391,7 +17398,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -17420,7 +17427,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -18651,13 +18658,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -18669,6 +18669,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_Techglobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="37" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="196">
   <si>
     <t>STT</t>
   </si>
@@ -618,13 +618,28 @@
     <t>Nâng cấp FW, thay led</t>
   </si>
   <si>
-    <t>Thay bộ nhớ</t>
-  </si>
-  <si>
     <t>Thiết bị lỗi bộ nhớ</t>
   </si>
   <si>
     <t>Imei mới: 868183033790879</t>
+  </si>
+  <si>
+    <t>Báo giá khách không sửa</t>
+  </si>
+  <si>
+    <t>Imei mới: 862846048289311</t>
+  </si>
+  <si>
+    <t>Imei mới:  862846048288016</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liện tục</t>
+  </si>
+  <si>
+    <t>Thay module GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>14/12/21</t>
   </si>
 </sst>
 </file>
@@ -1048,22 +1063,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1085,6 +1085,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1393,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1426,43 +1441,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1507,58 +1522,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -1583,23 +1598,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1609,7 +1624,9 @@
       <c r="B6" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
@@ -1621,7 +1638,7 @@
         <v>64</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I6" s="60" t="s">
         <v>107</v>
@@ -1632,24 +1649,28 @@
       <c r="K6" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="40"/>
+      <c r="L6" s="40" t="s">
+        <v>65</v>
+      </c>
       <c r="M6" s="1" t="s">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="40"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="P6" s="1" t="s">
         <v>109</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1664,7 +1685,9 @@
       <c r="B7" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
@@ -1706,7 +1729,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1719,7 +1742,9 @@
       <c r="B8" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>44</v>
       </c>
@@ -1759,7 +1784,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1788,7 +1813,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1817,7 +1842,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1846,7 +1871,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1875,7 +1900,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1906,7 +1931,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1935,7 +1960,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1964,7 +1989,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1993,7 +2018,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2144,7 +2169,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -2176,7 +2201,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -2581,7 +2606,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2645,7 +2670,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -3224,6 +3249,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3235,13 +3267,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3252,8 +3277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView showZeros="0" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3285,43 +3310,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3366,58 +3391,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3442,23 +3467,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3512,7 +3537,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3569,7 +3594,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3626,7 +3651,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3683,7 +3708,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3738,7 +3763,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3795,7 +3820,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3852,7 +3877,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3867,7 +3892,9 @@
       <c r="B13" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D13" s="38" t="s">
         <v>69</v>
       </c>
@@ -3907,7 +3934,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3920,7 +3947,9 @@
       <c r="B14" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="37"/>
+      <c r="C14" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>69</v>
       </c>
@@ -3962,7 +3991,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3975,7 +4004,9 @@
       <c r="B15" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D15" s="38" t="s">
         <v>69</v>
       </c>
@@ -4015,7 +4046,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4028,7 +4059,9 @@
       <c r="B16" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D16" s="38" t="s">
         <v>69</v>
       </c>
@@ -4070,7 +4103,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4083,7 +4116,9 @@
       <c r="B17" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D17" s="38" t="s">
         <v>69</v>
       </c>
@@ -4136,7 +4171,9 @@
       <c r="B18" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D18" s="38" t="s">
         <v>69</v>
       </c>
@@ -4189,7 +4226,9 @@
       <c r="B19" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D19" s="38" t="s">
         <v>69</v>
       </c>
@@ -4248,7 +4287,9 @@
       <c r="B20" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D20" s="38" t="s">
         <v>69</v>
       </c>
@@ -4304,7 +4345,9 @@
       <c r="B21" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D21" s="38" t="s">
         <v>69</v>
       </c>
@@ -5425,6 +5468,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5436,13 +5486,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5453,8 +5496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView showZeros="0" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5486,43 +5529,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -5567,58 +5610,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5643,23 +5686,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5669,7 +5712,9 @@
       <c r="B6" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>99</v>
       </c>
@@ -5711,7 +5756,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5726,7 +5771,9 @@
       <c r="B7" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>99</v>
       </c>
@@ -5752,7 +5799,9 @@
         <v>136</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="40"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="P7" s="1" t="s">
         <v>109</v>
       </c>
@@ -5764,7 +5813,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5777,7 +5826,9 @@
       <c r="B8" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>99</v>
       </c>
@@ -5817,7 +5868,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5830,7 +5881,9 @@
       <c r="B9" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>99</v>
       </c>
@@ -5872,7 +5925,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5901,7 +5954,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5930,7 +5983,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5959,7 +6012,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5990,7 +6043,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6019,7 +6072,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -6048,7 +6101,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -6077,7 +6130,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7308,6 +7361,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7319,13 +7379,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7337,7 +7390,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="C7" sqref="C7:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7369,43 +7422,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -7450,58 +7503,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -7526,23 +7579,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7598,7 +7651,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7613,7 +7666,9 @@
       <c r="B7" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>100</v>
       </c>
@@ -7653,7 +7708,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7666,7 +7721,9 @@
       <c r="B8" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>100</v>
       </c>
@@ -7678,9 +7735,11 @@
         <v>68</v>
       </c>
       <c r="H8" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="I8" s="60"/>
       <c r="J8" s="1" t="s">
         <v>124</v>
       </c>
@@ -7694,7 +7753,9 @@
       <c r="N8" s="51">
         <v>275000</v>
       </c>
-      <c r="O8" s="40"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="P8" s="1" t="s">
         <v>109</v>
       </c>
@@ -7706,7 +7767,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7719,7 +7780,9 @@
       <c r="B9" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>100</v>
       </c>
@@ -7757,7 +7820,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7770,7 +7833,9 @@
       <c r="B10" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>100</v>
       </c>
@@ -7781,7 +7846,9 @@
       <c r="G10" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="I10" s="60" t="s">
         <v>155</v>
       </c>
@@ -7798,7 +7865,9 @@
       <c r="N10" s="51">
         <v>275000</v>
       </c>
-      <c r="O10" s="40"/>
+      <c r="O10" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="P10" s="1" t="s">
         <v>109</v>
       </c>
@@ -7810,7 +7879,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7839,7 +7908,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7868,7 +7937,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7899,7 +7968,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7928,7 +7997,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7957,7 +8026,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7986,7 +8055,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9217,6 +9286,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9228,13 +9304,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9245,8 +9314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="G4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E7"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9278,43 +9347,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -9359,58 +9428,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -9435,23 +9504,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9461,7 +9530,9 @@
       <c r="B6" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>101</v>
       </c>
@@ -9482,12 +9553,12 @@
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="N6" s="51">
-        <v>275000</v>
-      </c>
-      <c r="O6" s="40"/>
+        <v>190</v>
+      </c>
+      <c r="N6" s="51"/>
+      <c r="O6" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="P6" s="1" t="s">
         <v>109</v>
       </c>
@@ -9499,7 +9570,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9514,7 +9585,9 @@
       <c r="B7" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>101</v>
       </c>
@@ -9544,7 +9617,9 @@
       <c r="N7" s="51">
         <v>63000</v>
       </c>
-      <c r="O7" s="40"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="P7" s="1" t="s">
         <v>109</v>
       </c>
@@ -9556,7 +9631,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9585,7 +9660,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9614,7 +9689,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9643,7 +9718,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9672,7 +9747,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9701,7 +9776,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9732,7 +9807,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9761,7 +9836,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9790,7 +9865,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9819,7 +9894,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10589,7 +10664,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -11050,6 +11125,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -11061,13 +11143,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11078,8 +11153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11111,43 +11186,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -11192,58 +11267,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -11268,23 +11343,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11336,7 +11411,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -11393,7 +11468,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11448,7 +11523,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11503,7 +11578,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -11516,7 +11591,9 @@
       <c r="B10" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>67</v>
       </c>
@@ -11528,19 +11605,35 @@
         <v>68</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="40"/>
+      <c r="I10" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>85</v>
+      </c>
       <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="M10" s="40" t="s">
+        <v>144</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11553,7 +11646,9 @@
       <c r="B11" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>67</v>
       </c>
@@ -11593,7 +11688,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11606,7 +11701,9 @@
       <c r="B12" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>67</v>
       </c>
@@ -11646,7 +11743,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -11661,7 +11758,9 @@
       <c r="B13" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D13" s="38" t="s">
         <v>67</v>
       </c>
@@ -11699,7 +11798,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11712,7 +11811,9 @@
       <c r="B14" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="37"/>
+      <c r="C14" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>67</v>
       </c>
@@ -11740,7 +11841,9 @@
       <c r="N14" s="51">
         <v>12000</v>
       </c>
-      <c r="O14" s="40"/>
+      <c r="O14" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="P14" s="1" t="s">
         <v>109</v>
       </c>
@@ -11752,7 +11855,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11765,7 +11868,9 @@
       <c r="B15" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D15" s="38" t="s">
         <v>67</v>
       </c>
@@ -11805,7 +11910,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11834,7 +11939,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11953,7 +12058,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -12326,7 +12431,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -12486,7 +12591,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -13065,6 +13170,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13076,13 +13188,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13093,8 +13198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" activeCellId="1" sqref="J8 E8"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13126,43 +13231,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -13207,58 +13312,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -13283,23 +13388,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13309,7 +13414,9 @@
       <c r="B6" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>102</v>
       </c>
@@ -13353,7 +13460,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -13368,7 +13475,9 @@
       <c r="B7" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>102</v>
       </c>
@@ -13398,7 +13507,9 @@
       <c r="N7" s="51">
         <v>38000</v>
       </c>
-      <c r="O7" s="40"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="P7" s="1" t="s">
         <v>109</v>
       </c>
@@ -13410,7 +13521,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -13423,7 +13534,9 @@
       <c r="B8" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>102</v>
       </c>
@@ -13437,19 +13550,19 @@
       <c r="H8" s="13"/>
       <c r="I8" s="60"/>
       <c r="J8" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>174</v>
       </c>
       <c r="L8" s="40"/>
       <c r="M8" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="N8" s="51">
-        <v>138000</v>
-      </c>
-      <c r="O8" s="40"/>
+        <v>190</v>
+      </c>
+      <c r="N8" s="51"/>
+      <c r="O8" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="P8" s="1" t="s">
         <v>109</v>
       </c>
@@ -13461,7 +13574,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -13474,7 +13587,9 @@
       <c r="B9" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>102</v>
       </c>
@@ -13514,7 +13629,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -13527,7 +13642,9 @@
       <c r="B10" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>102</v>
       </c>
@@ -13546,12 +13663,12 @@
       <c r="K10" s="40"/>
       <c r="L10" s="40"/>
       <c r="M10" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="N10" s="51">
-        <v>450000</v>
-      </c>
-      <c r="O10" s="40"/>
+        <v>190</v>
+      </c>
+      <c r="N10" s="51"/>
+      <c r="O10" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="P10" s="1" t="s">
         <v>109</v>
       </c>
@@ -13563,7 +13680,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -13576,7 +13693,9 @@
       <c r="B11" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>102</v>
       </c>
@@ -13616,7 +13735,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -13645,7 +13764,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -13676,7 +13795,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -13705,7 +13824,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -13734,7 +13853,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -13763,7 +13882,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -14533,7 +14652,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -14994,6 +15113,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15005,13 +15131,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15055,43 +15174,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -15136,58 +15255,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -15212,23 +15331,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15276,7 +15395,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -15307,7 +15426,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -15336,7 +15455,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -15365,7 +15484,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -15394,7 +15513,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -15423,7 +15542,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -15452,7 +15571,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -15483,7 +15602,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -15512,7 +15631,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -15541,7 +15660,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -15570,7 +15689,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -16801,6 +16920,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16812,13 +16938,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16829,8 +16948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16862,43 +16981,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -16943,58 +17062,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -17019,23 +17138,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17083,7 +17202,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -17140,7 +17259,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -17193,7 +17312,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -17222,7 +17341,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -17251,7 +17370,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -17280,7 +17399,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -17309,7 +17428,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -17340,7 +17459,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -17369,7 +17488,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -17398,7 +17517,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -17427,7 +17546,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -18658,6 +18777,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -18669,13 +18795,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
